--- a/db/Cat_highlights.xlsx
+++ b/db/Cat_highlights.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Biscuit/Lighthouse/nokogiri_tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Biscuit/Lighthouse/Pawsibilities/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="9500" windowWidth="28740" windowHeight="8500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="166">
   <si>
     <t>With the way his small ears fit like a cap over his rounded head, the Scottish Fold is often described as resembling an owl. The ears range in appearance from a single fold, bent forward about halfway up the ear, to a double fold, somewhat tighter, and the triple fold, lying tight to the head, which is desirable for show cats. Kittens are born with straight ears, which may or may not fold when they are about 3 weeks old. Wide open eyes gaze out at the world with a sweet expression. The medium-size body is also rounded, completed by a medium to long tail that sometimes ends in a rounded tip.A shorthaired Fold has a dense, plush coat with a soft texture. The longhaired variety has medium-long to long fur with britches (longer fur on the upper thighs), toe tufts, a plumed tail, and tufts of fur on the ears. He may also have a ruff around the neck. The Scottish Fold comes in a number of colors and patterns, including solid, tabby, tabby and white, bicolor and particolor. Eye color depends on coat color. For instance, white and bicolor cats can have blue eyes or odd eyes (each eye is a different color).</t>
   </si>
@@ -550,6 +550,24 @@
   <si>
     <t>["The Tabby's coat is easily cared for with weekly combing to remove dead hair and distribute skin oils. A bath is rarely necessary.Brush the teeth to prevent periodontal disease. Daily dental hygiene is best, but weekly brushing is better than nothing. Trim the nails every couple of weeks. Wipe the corners of the eyes with a soft, damp cloth to remove any discharge. Use a separate area of the cloth for each eye so you don't run the risk of spreading any infection. Check the ears weekly. If they look dirty, wipe them out with a cotton ball or soft damp cloth moistened with a 50-50 mixture of cider vinegar and warm water. Avoid using cotton swabs, which can damage the interior of the ear.Keep the litter box spotlessly clean. Cats are very particular about bathroom hygiene, and a dirty box may cause them to start using other places in the house instead."]</t>
   </si>
+  <si>
+    <t>Dilute Calico</t>
+  </si>
+  <si>
+    <t>Calico</t>
+  </si>
+  <si>
+    <t>Tuxedo</t>
+  </si>
+  <si>
+    <t>["Calico is both a color and a pattern, but it is not a breed of cat. Many breeds and mixed breed cats can be calico, such as the American shorthair, American longhair, Manx, Japanese bobtail, Cornish Rex, Maine coon and Persian, to name just a few of the more popular breeds. A true calico cat not only has three different colors on its coat; one of the "colors" must be white, and the colors must appear in spots or patches, not closely intermingled with each other."]</t>
+  </si>
+  <si>
+    <t>["Calico is both a color and a pattern, but it is not a breed of cat. Many breeds and mixed breed cats can be calico, such as the American shorthair, American longhair, Manx, Japanese bobtail, Cornish Rex, Maine coon and Persian, to name just a few of the more popular breeds. A true calico cat not only has three different colors on its coat; one of the "colors" must be white, and the colors must appear in spots or patches, not closely intermingled with each other. Dilute simply means the color is less intense. For example, cream is the dilute version of red, and blue is the dilute version of black. Cream is a soft reddish color, like strawberry blond, and blue is a smoky gray color. Other dilute colors include lilac, which looks like a lighter version of blue but is actually the dilute of chocolate; and fawn, which appears beige and is the dilute of cinnamon."]</t>
+  </si>
+  <si>
+    <t>["Tuxedo cats are named for the colour pattern thety have. They have white on their chest and stomachs and sometimes on their feet, chins and neck. They are easy cats to look after providing they don't have any ailments or health concerns. In order to keep your cat healthy make sure that you take your cat to the vets at least once a year for a check up and booster jabs. "]</t>
+  </si>
 </sst>
 </file>
 
@@ -868,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1032242"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,6 +1336,30 @@
         <v>159</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="16385" spans="2:2" ht="208" x14ac:dyDescent="0.2">
       <c r="B16385" s="1" t="s">
         <v>51</v>
